--- a/Luke-Excel-Course/2_Formulas_Functions/8_Text_Functions.xlsx
+++ b/Luke-Excel-Course/2_Formulas_Functions/8_Text_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Data Science Career\Data-Analyst\Luke-Excel-Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289F5FEB-D4A0-4E30-9E0C-8AA9F558B1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BB0E2C-C349-4925-8796-55CA59227150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="8" r:id="rId1"/>
@@ -24,30 +24,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -354,13 +343,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -368,14 +357,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -537,8 +533,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -548,7 +544,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -566,7 +562,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -653,60 +649,61 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Skills!$A$9:$A$24</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>Kafka</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DataBricks</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Spark</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Python</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GCP</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Power BI</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Airflow</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Hadoop</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>R</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Azure</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Java</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>SQL</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Snowflake</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Scala</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Excel</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Tableau</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -715,52 +712,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1786,31 +1783,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E7F13-C613-4452-9CDB-2C26D6876D9D}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H21"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.265625" customWidth="1"/>
-    <col min="3" max="3" width="27.265625" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26.265625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="14.25" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.25" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="8.86328125" customWidth="1"/>
-    <col min="10" max="10" width="34.73046875" customWidth="1"/>
-    <col min="11" max="11" width="8.86328125" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.46484375" customWidth="1"/>
-    <col min="14" max="14" width="8.86328125" customWidth="1"/>
-    <col min="15" max="15" width="16.3984375" customWidth="1"/>
+    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="42.625" customWidth="1"/>
+    <col min="11" max="11" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="19.25" customWidth="1"/>
     <col min="17" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -1858,7 +1855,7 @@
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -1882,6 +1879,14 @@
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,F2:G2)</f>
+        <v>457 Oak St San Jose, CA, 95101</v>
+      </c>
+      <c r="O2" t="str">
+        <f>RIGHT(A2,2)</f>
+        <v>48</v>
       </c>
       <c r="Q2">
         <f>FIND(",", G2)+LEN(", ")</f>
@@ -1895,8 +1900,20 @@
         <f>MID(G2,Q2,R2-Q2)</f>
         <v>CA</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T2">
+        <f>FIND(",",G2)+LEN(", ")</f>
+        <v>11</v>
+      </c>
+      <c r="U2">
+        <f>FIND(",",G2,T2)</f>
+        <v>13</v>
+      </c>
+      <c r="V2" t="str">
+        <f>MID(G2,T2,U2-T2)</f>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -1921,20 +1938,40 @@
       <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J21" si="0">_xlfn.TEXTJOIN(" ",TRUE,F3:G3)</f>
+        <v>203 Birch St Chicago, IL, 60601</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O21" si="1">RIGHT(A3,2)</f>
+        <v>49</v>
+      </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q21" si="0">FIND(",", G3)+LEN(", ")</f>
+        <f t="shared" ref="Q3:Q21" si="2">FIND(",", G3)+LEN(", ")</f>
         <v>10</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R21" si="1">FIND(",",G3,Q3)</f>
+        <f t="shared" ref="R3:R21" si="3">FIND(",",G3,Q3)</f>
         <v>12</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S21" si="2">MID(G3,Q3,R3-Q3)</f>
+        <f t="shared" ref="S3:S21" si="4">MID(G3,Q3,R3-Q3)</f>
         <v>IL</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T3">
+        <f t="shared" ref="T3:T21" si="5">FIND(",",G3)+LEN(", ")</f>
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U21" si="6">FIND(",",G3,T3)</f>
+        <v>12</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V21" si="7">MID(G3,T3,U3-T3)</f>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -1959,20 +1996,40 @@
       <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>790 Pine St Chicago, IL, 60601</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="7"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -1997,20 +2054,40 @@
       <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="J5" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,F5:G5)</f>
+        <v>457 Oak St San Jose, CA, 95101</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f>FIND(",", G5)+LEN(", ")</f>
         <v>11</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
+        <f>FIND(",",G5,Q5)</f>
         <v>13</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(G5,Q5,R5-Q5)</f>
         <v>CA</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="7"/>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2035,20 +2112,40 @@
       <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="7"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -2073,20 +2170,40 @@
       <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>204 Birch St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="7"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -2111,20 +2228,40 @@
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>790 Pine St Chicago, IL, 60601</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="7"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -2149,20 +2286,40 @@
       <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>204 Birch St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="7"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -2187,20 +2344,40 @@
       <c r="H10" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm St Chicago, IL, 60601</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="7"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -2225,20 +2402,40 @@
       <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm St Los Angeles, CA, 90001</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CA</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="7"/>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -2263,20 +2460,40 @@
       <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm St San Diego, CA, 92101</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CA</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="7"/>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -2301,20 +2518,40 @@
       <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>202 Birch St Chicago, IL, 60601</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="7"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -2339,20 +2576,40 @@
       <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>204 Birch St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="7"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -2377,20 +2634,40 @@
       <c r="H15" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>123 Elm St Chicago, IL, 60601</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="7"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -2415,20 +2692,40 @@
       <c r="H16" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>456 Oak St Chicago, IL, 60601</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="7"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -2453,20 +2750,40 @@
       <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>203 Birch St Chicago, IL, 60602</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="7"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -2491,20 +2808,40 @@
       <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="7"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -2529,20 +2866,40 @@
       <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>456 Oak St New York, NY, 10001</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
       <c r="Q19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NY</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T19">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="7"/>
+        <v>NY</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -2567,20 +2924,40 @@
       <c r="H20" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
       <c r="Q20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="T20">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="7"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -2605,16 +2982,36 @@
       <c r="H21" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>459 Oak St New York, NY, 10001</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
       <c r="Q21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>NY</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="7"/>
         <v>NY</v>
       </c>
     </row>
@@ -2635,23 +3032,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BCB134-41DE-47D5-9456-1C60C9867AFA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -2680,7 +3079,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -2710,7 +3109,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -2740,7 +3139,7 @@
         <v>203 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -2770,7 +3169,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -2800,7 +3199,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2830,7 +3229,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -2860,7 +3259,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -2890,7 +3289,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -2920,7 +3319,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -2950,7 +3349,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -2980,7 +3379,7 @@
         <v>123 Elm St Los Angeles, CA, 90001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -3010,7 +3409,7 @@
         <v>123 Elm St San Diego, CA, 92101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -3040,7 +3439,7 @@
         <v>202 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -3070,7 +3469,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -3100,7 +3499,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -3130,7 +3529,7 @@
         <v>456 Oak St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -3160,7 +3559,7 @@
         <v>203 Birch St Chicago, IL, 60602</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -3190,7 +3589,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -3220,7 +3619,7 @@
         <v>456 Oak St New York, NY, 10001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -3250,7 +3649,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -3281,6 +3680,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3289,25 +3689,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F197DD-EE87-4022-A4E6-1027B6E64DD6}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -3349,7 +3751,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -3394,7 +3796,7 @@
         <v>0123548</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -3438,7 +3840,7 @@
         <v>0123549</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -3482,7 +3884,7 @@
         <v>0123550</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -3526,7 +3928,7 @@
         <v>0123551</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -3570,7 +3972,7 @@
         <v>0123552</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -3611,7 +4013,7 @@
         <v>0123553</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -3652,7 +4054,7 @@
         <v>0123554</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -3693,7 +4095,7 @@
         <v>0123555</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -3734,7 +4136,7 @@
         <v>0123556</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -3775,7 +4177,7 @@
         <v>0123557</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -3816,7 +4218,7 @@
         <v>0123558</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -3857,7 +4259,7 @@
         <v>0123559</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -3898,7 +4300,7 @@
         <v>0123560</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -3939,7 +4341,7 @@
         <v>0123561</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -3980,7 +4382,7 @@
         <v>0123562</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -4021,7 +4423,7 @@
         <v>0123563</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -4062,7 +4464,7 @@
         <v>0123564</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -4103,7 +4505,7 @@
         <v>0123565</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -4144,7 +4546,7 @@
         <v>0123566</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -4186,6 +4588,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4194,23 +4597,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E73CB36-69AF-4B27-BCC8-FDB353A4DE72}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.1328125" customWidth="1"/>
-    <col min="5" max="5" width="26.1328125" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="40" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" customWidth="1"/>
+    <col min="9" max="9" width="11.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -4241,7 +4646,7 @@
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -4279,7 +4684,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -4317,7 +4722,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -4355,7 +4760,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -4393,7 +4798,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -4431,7 +4836,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -4469,7 +4874,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -4507,7 +4912,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -4545,7 +4950,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -4583,7 +4988,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -4621,7 +5026,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -4659,7 +5064,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -4697,7 +5102,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -4735,7 +5140,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -4773,7 +5178,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -4811,7 +5216,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -4849,7 +5254,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -4887,7 +5292,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -4925,7 +5330,7 @@
         <v>NY</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -4963,7 +5368,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -5005,6 +5410,7 @@
   <mergeCells count="1">
     <mergeCell ref="J1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5013,262 +5419,337 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85789AE4-586B-4DA1-B069-1172780CDADC}">
   <dimension ref="A2:BW25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="16"/>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>_xlfn.TEXTJOIN(", ",TRUE,Data!H2:H21)</f>
         <v>Kafka, DataBricks, Spark, Python, GCP, Power BI, GCP, Airflow, Hadoop, R, Azure, Java, SQL, DataBricks, Kafka, DataBricks, Spark, Python, GCP, DataBricks, Hadoop, Java, Snowflake, Airflow, DataBricks, Azure, Java, SQL, DataBricks, Snowflake, Airflow, DataBricks, Scala, Azure, R, Kafka, Snowflake, Excel, Scala, Excel, Power BI, R, Scala, R, Hadoop, Power BI, SQL, Snowflake, Airflow, DataBricks, Java, Scala, R, DataBricks, Azure, Scala, Power BI, GCP, Airflow, Hadoop, R, DataBricks, Hadoop, Java, Snowflake, Power BI, Tableau, Airflow, SQL, DataBricks, Hadoop, Java, DataBricks, Hadoop, Java</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="16"/>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
-      <c r="A6" t="str" cm="1">
-        <f t="array" ref="A6:BW6">_xlfn.TEXTSPLIT(A3,", ")</f>
-        <v>Kafka</v>
-      </c>
-      <c r="B6" t="str">
-        <v>DataBricks</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Spark</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Python</v>
-      </c>
-      <c r="E6" t="str">
-        <v>GCP</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Power BI</v>
-      </c>
-      <c r="G6" t="str">
-        <v>GCP</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Airflow</v>
-      </c>
-      <c r="I6" t="str">
-        <v>Hadoop</v>
-      </c>
-      <c r="J6" t="str">
-        <v>R</v>
-      </c>
-      <c r="K6" t="str">
-        <v>Azure</v>
-      </c>
-      <c r="L6" t="str">
-        <v>Java</v>
-      </c>
-      <c r="M6" t="str">
-        <v>SQL</v>
-      </c>
-      <c r="N6" t="str">
-        <v>DataBricks</v>
-      </c>
-      <c r="O6" t="str">
-        <v>Kafka</v>
-      </c>
-      <c r="P6" t="str">
-        <v>DataBricks</v>
-      </c>
-      <c r="Q6" t="str">
-        <v>Spark</v>
-      </c>
-      <c r="R6" t="str">
-        <v>Python</v>
-      </c>
-      <c r="S6" t="str">
-        <v>GCP</v>
-      </c>
-      <c r="T6" t="str">
-        <v>DataBricks</v>
-      </c>
-      <c r="U6" t="str">
-        <v>Hadoop</v>
-      </c>
-      <c r="V6" t="str">
-        <v>Java</v>
-      </c>
-      <c r="W6" t="str">
-        <v>Snowflake</v>
-      </c>
-      <c r="X6" t="str">
-        <v>Airflow</v>
-      </c>
-      <c r="Y6" t="str">
-        <v>DataBricks</v>
-      </c>
-      <c r="Z6" t="str">
-        <v>Azure</v>
-      </c>
-      <c r="AA6" t="str">
-        <v>Java</v>
-      </c>
-      <c r="AB6" t="str">
-        <v>SQL</v>
-      </c>
-      <c r="AC6" t="str">
-        <v>DataBricks</v>
-      </c>
-      <c r="AD6" t="str">
-        <v>Snowflake</v>
-      </c>
-      <c r="AE6" t="str">
-        <v>Airflow</v>
-      </c>
-      <c r="AF6" t="str">
-        <v>DataBricks</v>
-      </c>
-      <c r="AG6" t="str">
-        <v>Scala</v>
-      </c>
-      <c r="AH6" t="str">
-        <v>Azure</v>
-      </c>
-      <c r="AI6" t="str">
-        <v>R</v>
-      </c>
-      <c r="AJ6" t="str">
-        <v>Kafka</v>
-      </c>
-      <c r="AK6" t="str">
-        <v>Snowflake</v>
-      </c>
-      <c r="AL6" t="str">
-        <v>Excel</v>
-      </c>
-      <c r="AM6" t="str">
-        <v>Scala</v>
-      </c>
-      <c r="AN6" t="str">
-        <v>Excel</v>
-      </c>
-      <c r="AO6" t="str">
-        <v>Power BI</v>
-      </c>
-      <c r="AP6" t="str">
-        <v>R</v>
-      </c>
-      <c r="AQ6" t="str">
-        <v>Scala</v>
-      </c>
-      <c r="AR6" t="str">
-        <v>R</v>
-      </c>
-      <c r="AS6" t="str">
-        <v>Hadoop</v>
-      </c>
-      <c r="AT6" t="str">
-        <v>Power BI</v>
-      </c>
-      <c r="AU6" t="str">
-        <v>SQL</v>
-      </c>
-      <c r="AV6" t="str">
-        <v>Snowflake</v>
-      </c>
-      <c r="AW6" t="str">
-        <v>Airflow</v>
-      </c>
-      <c r="AX6" t="str">
-        <v>DataBricks</v>
-      </c>
-      <c r="AY6" t="str">
-        <v>Java</v>
-      </c>
-      <c r="AZ6" t="str">
-        <v>Scala</v>
-      </c>
-      <c r="BA6" t="str">
-        <v>R</v>
-      </c>
-      <c r="BB6" t="str">
-        <v>DataBricks</v>
-      </c>
-      <c r="BC6" t="str">
-        <v>Azure</v>
-      </c>
-      <c r="BD6" t="str">
-        <v>Scala</v>
-      </c>
-      <c r="BE6" t="str">
-        <v>Power BI</v>
-      </c>
-      <c r="BF6" t="str">
-        <v>GCP</v>
-      </c>
-      <c r="BG6" t="str">
-        <v>Airflow</v>
-      </c>
-      <c r="BH6" t="str">
-        <v>Hadoop</v>
-      </c>
-      <c r="BI6" t="str">
-        <v>R</v>
-      </c>
-      <c r="BJ6" t="str">
-        <v>DataBricks</v>
-      </c>
-      <c r="BK6" t="str">
-        <v>Hadoop</v>
-      </c>
-      <c r="BL6" t="str">
-        <v>Java</v>
-      </c>
-      <c r="BM6" t="str">
-        <v>Snowflake</v>
-      </c>
-      <c r="BN6" t="str">
-        <v>Power BI</v>
-      </c>
-      <c r="BO6" t="str">
-        <v>Tableau</v>
-      </c>
-      <c r="BP6" t="str">
-        <v>Airflow</v>
-      </c>
-      <c r="BQ6" t="str">
-        <v>SQL</v>
-      </c>
-      <c r="BR6" t="str">
-        <v>DataBricks</v>
-      </c>
-      <c r="BS6" t="str">
-        <v>Hadoop</v>
-      </c>
-      <c r="BT6" t="str">
-        <v>Java</v>
-      </c>
-      <c r="BU6" t="str">
-        <v>DataBricks</v>
-      </c>
-      <c r="BV6" t="str">
-        <v>Hadoop</v>
-      </c>
-      <c r="BW6" t="str">
-        <v>Java</v>
-      </c>
-    </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A6" t="e" cm="1">
+        <f t="array" aca="1" ref="A6:BW6" ca="1">_xlfn.TEXTSPLIT(A3,", ")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="K6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="N6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="P6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="U6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="V6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="W6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="X6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AD6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AE6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AF6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AG6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AH6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AI6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AJ6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AK6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AL6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AM6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AN6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AO6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AP6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AQ6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AR6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AS6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AT6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AU6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AV6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AW6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AX6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AY6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AZ6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BA6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BB6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BC6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BD6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BE6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BF6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BG6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BH6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BI6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BJ6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BK6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BL6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BM6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BN6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BO6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BP6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BQ6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BR6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BS6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BT6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BU6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BV6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="BW6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>68</v>
       </c>
@@ -5280,161 +5761,178 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="str" cm="1">
-        <f t="array" ref="A9:A25">_xlfn.UNIQUE(TRANSPOSE(6:6))</f>
-        <v>Kafka</v>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="A9:A25" ca="1">_xlfn.UNIQUE(TRANSPOSE(6:6))</f>
+        <v>#NAME?</v>
       </c>
       <c r="B9" s="1">
-        <f>COUNTIF($6:$6,A9)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="str">
-        <v>DataBricks</v>
+        <f ca="1">COUNTIF($6:$6,A9)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10:B25" si="0">COUNTIF($6:$6,A10)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="str">
-        <v>Spark</v>
+        <f t="shared" ref="B10:B25" ca="1" si="0">COUNTIF($6:$6,A10)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="str">
-        <v>Python</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="str">
-        <v>GCP</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="str">
-        <v>Power BI</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="str">
-        <v>Airflow</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="str">
-        <v>Hadoop</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="str">
-        <v>R</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="str">
-        <v>Azure</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="str">
-        <v>Java</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="str">
-        <v>SQL</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="str">
-        <v>Snowflake</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="str">
-        <v>Scala</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="str">
-        <v>Excel</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="str">
-        <v>Tableau</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
